--- a/ULS_Bharani/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Bharani/TestData/IjaraJSPaths.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>document.querySelector('[ng-reflect-title="Customer Name"]')</t>
+  </si>
+  <si>
+    <t>CustomerType*</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Customer Type.TOOLTIP"]').innerText</t>
   </si>
 </sst>
 </file>
@@ -611,10 +617,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -797,6 +803,14 @@
       </c>
       <c r="B22" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/ULS_Bharani/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Bharani/TestData/IjaraJSPaths.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
     <sheet name="CustomerSearch" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="NewApp_IdentificationDetailsJS" sheetId="3" r:id="rId3"/>
+    <sheet name="iJarah_CommonElements" sheetId="4" r:id="rId4"/>
+    <sheet name="TWCommodityPurchaseAppDetails" sheetId="5" r:id="rId5"/>
+    <sheet name="TWCommodityPurchaseCustoDetails" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="486">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -202,6 +205,1278 @@
   </si>
   <si>
     <t>document.querySelector('[ng-reflect-text="Customer Type.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>New_App_CustomerIdentificationDetailsElements</t>
+  </si>
+  <si>
+    <t>additional_customer_info_tab</t>
+  </si>
+  <si>
+    <t>document.getElementById('seg3')</t>
+  </si>
+  <si>
+    <t>customer_personal_information_edit_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Edit"]')</t>
+  </si>
+  <si>
+    <t>id_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="ID Type tooltip"]+ion-select')</t>
+  </si>
+  <si>
+    <t>issue_authority_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Issuing Authority"]+ion-select')</t>
+  </si>
+  <si>
+    <t>country_of_issue_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Country of Issue"]+ion-select')</t>
+  </si>
+  <si>
+    <t>id_nummber_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ID_NUMBER.TOOLTIP"]').innerText</t>
+  </si>
+  <si>
+    <t>id_number_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ID_NUMBER.TOOLTIP"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>date_of_issue_field_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="dateOfIssue"]&gt;div p-calendar').getAttribute("ng-reflect-date-format")</t>
+  </si>
+  <si>
+    <t>date_of_issue_input_box</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="dateOfIssue"]&gt;div p-calendar input')</t>
+  </si>
+  <si>
+    <t>issue_date_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="Issue Date"]').innerText</t>
+  </si>
+  <si>
+    <t>date_of_expiry_field_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="dateOfExpiry"]&gt;div p-calendar').getAttribute("ng-reflect-date-format")</t>
+  </si>
+  <si>
+    <t>date_of_expiry_input_box</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-prime-date[id="dateOfExpiry"]&gt;div p-calendar input')</t>
+  </si>
+  <si>
+    <t>date_of_expiry_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('label[ng-reflect-text="Expiry Date"]').innerText</t>
+  </si>
+  <si>
+    <t>primary_id_flag_toggle_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-title="FORM.PRIMARY_ID_FLAG"]&gt;ion-item&gt;ion-toggle')</t>
+  </si>
+  <si>
+    <t>primary_id_flag_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-title="FORM.PRIMARY_ID_FLAG"]&gt;div&gt;ion-label').innerText</t>
+  </si>
+  <si>
+    <t>Issuing_Authority_dropdown</t>
+  </si>
+  <si>
+    <t>id_number_field_level_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="idNumber"]+div ion-badge').innerText</t>
+  </si>
+  <si>
+    <t>id_number_get_field_value</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="SCR.ID_NUMBER.TOOLTIP"]+ion-input input').value</t>
+  </si>
+  <si>
+    <t>list_view_search_input_box</t>
+  </si>
+  <si>
+    <t>document.querySelector('input[mode="ios"]')</t>
+  </si>
+  <si>
+    <t>customer_identification_details_status_toggle_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-title="FORM.ACTIVE_INACTIVE"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>customer_identification_details_record_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-title="FORM.ACTIVE_INACTIVE"] ion-toggle').getAttribute('aria-checked')</t>
+  </si>
+  <si>
+    <t>identification_details_view_summary_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="View Summary"]')</t>
+  </si>
+  <si>
+    <t>view_summary_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ionic-title[class="ion-title"]').innerText</t>
+  </si>
+  <si>
+    <t>view_summary_close_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-button[expand="block"]')</t>
+  </si>
+  <si>
+    <t>Ijarah_CommonFieldName</t>
+  </si>
+  <si>
+    <t>module_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[ng-reflect-text="Module name"]')</t>
+  </si>
+  <si>
+    <t>moduledropdown_LOSOption</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[id^=ion-rb]').innerText</t>
+  </si>
+  <si>
+    <t>mail_box</t>
+  </si>
+  <si>
+    <t>document.querySelector('[name="mail-unread-outline"]')</t>
+  </si>
+  <si>
+    <t>mail_box_search_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('app-inbox button[ng-reflect-text="Search"]')</t>
+  </si>
+  <si>
+    <t>mail_box_search_text</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-card-content span&gt;input')</t>
+  </si>
+  <si>
+    <t>mail_box_edit_icon</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-user-edit"]')</t>
+  </si>
+  <si>
+    <t>save_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-save"]')</t>
+  </si>
+  <si>
+    <t>back_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-card-content button[ng-reflect-text="Go Back"]')</t>
+  </si>
+  <si>
+    <t>today_date</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-label="Today"]')</t>
+  </si>
+  <si>
+    <t>toast_message</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast[role="status"]').shadowRoot.querySelector('div[part="message"]').textContent</t>
+  </si>
+  <si>
+    <t>pdf_download</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdownitem[ng-reflect-label="PDF"] span')</t>
+  </si>
+  <si>
+    <t>xls_download</t>
+  </si>
+  <si>
+    <t>document.querySelector('p-dropdownitem[ng-reflect-label="XLS"] span')</t>
+  </si>
+  <si>
+    <t>toast_container_message</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[id="toast-container"] button+div').innerText</t>
+  </si>
+  <si>
+    <t>toast_container_message_close_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('div[id="toast-container"] button')</t>
+  </si>
+  <si>
+    <t>menu_bar</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-button[class="toggleCollapse-btn md button button-solid ion-activatable ion-focusable hydrated"]')</t>
+  </si>
+  <si>
+    <t>transaction_main_module</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-accordion[value="Transactions"] ion-item[class^="menu-list-accordian"] ion-icon[class="ion-accordion-toggle-icon md hydrated"]')</t>
+  </si>
+  <si>
+    <t>application_manager_module</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-list ion-accordion[value="Transactions"] ion-icon[class="ion-accordion-toggle-icon md hydrated"]')</t>
+  </si>
+  <si>
+    <t>submit_button</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[label="Submit"]')</t>
+  </si>
+  <si>
+    <t>alert_ok</t>
+  </si>
+  <si>
+    <t>document.getElementsByTagName('ion-chip')[0]</t>
+  </si>
+  <si>
+    <t>alert_submit</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-send"]')</t>
+  </si>
+  <si>
+    <t>DataCheckAppDetails_FieldName</t>
+  </si>
+  <si>
+    <t>AppDetailsSectionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="Application Details"]')</t>
+  </si>
+  <si>
+    <t>AppDetailsBackBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-arrow-left"]')</t>
+  </si>
+  <si>
+    <t>AppDetailsSubmitBtn</t>
+  </si>
+  <si>
+    <t>AppDetailsReturnBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[label="Return"]')</t>
+  </si>
+  <si>
+    <t>AppDetailsViewSummaryBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Go Back"]')</t>
+  </si>
+  <si>
+    <t>classificationLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="productCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>classificationDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="productCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>productLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="subProductCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>productDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="subProductCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>totalFinanceAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="TotalFinanc"]')</t>
+  </si>
+  <si>
+    <t>totalFinanceAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="totalFinanceAmount"] p-inputnumber')</t>
+  </si>
+  <si>
+    <t>declaredMonthlyIncomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="declCurrNetincome"] ion-label')</t>
+  </si>
+  <si>
+    <t>declaredMonthlyIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="declCurrNetincome"] p-inputnumber')</t>
+  </si>
+  <si>
+    <t>declaredCurrentObligationsLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="currentObligations"] ion-label')</t>
+  </si>
+  <si>
+    <t>declaredCurrentObligationsInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="currentObligations"] p-inputnumber')</t>
+  </si>
+  <si>
+    <t>specialPromotionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="promotionCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>specialPromotionDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="promotionCode"] ion-select')</t>
+  </si>
+  <si>
+    <t>sourcingChannelLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sourcingChannel"] ion-label')</t>
+  </si>
+  <si>
+    <t>sourcingChannelDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sourcingChannel"] ion-select')</t>
+  </si>
+  <si>
+    <t>businessCenterCodeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="businessCenter"] ion-label')</t>
+  </si>
+  <si>
+    <t>businessCenterCodeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="businessCenter"] ion-select')</t>
+  </si>
+  <si>
+    <t>servicingTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="servicingBpType"] ion-label')</t>
+  </si>
+  <si>
+    <t>servicingTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="servicingBpType"] ion-select')</t>
+  </si>
+  <si>
+    <t>regionLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="serviciingBpId"] ion-label')</t>
+  </si>
+  <si>
+    <t>regionDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="serviciingBpId"] ion-select')</t>
+  </si>
+  <si>
+    <t>servicingBrachLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="serviceBranch"] ion-label')</t>
+  </si>
+  <si>
+    <t>servicingBrachDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="serviceBranch"] ion-select')</t>
+  </si>
+  <si>
+    <t>spokeLocationLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="spokeLoc"] ion-label')</t>
+  </si>
+  <si>
+    <t>spokeLocationDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="spokeLoc"] ion-select')</t>
+  </si>
+  <si>
+    <t>closingStaffLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="ClosingStaf"]')</t>
+  </si>
+  <si>
+    <t>closingStaffDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="ClosingStaf"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>topupTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="topupType"] ion-label')</t>
+  </si>
+  <si>
+    <t>topupTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="topupType"] ion-select')</t>
+  </si>
+  <si>
+    <t>topupAppNoLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="topupApplNo"] ion-label')</t>
+  </si>
+  <si>
+    <t>topupAppNoInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="topupApplNo"] input')</t>
+  </si>
+  <si>
+    <t>sourcingTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sourcingBpType"] ion-label')</t>
+  </si>
+  <si>
+    <t>sourcingTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label*="Sourcing Type"]')</t>
+  </si>
+  <si>
+    <t>sourcingOfficeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="SourcingOff"]')</t>
+  </si>
+  <si>
+    <t>sourcingOfficeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label*="Sourcing Office"]')</t>
+  </si>
+  <si>
+    <t>sourcingEntityLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="SourcingEnt"]')</t>
+  </si>
+  <si>
+    <t>sourcingEntityDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label*="Sourcing Entity"]')</t>
+  </si>
+  <si>
+    <t>sourcingStaffLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="SourcingSta"]')</t>
+  </si>
+  <si>
+    <t>sourcingStaffDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label*="Sourcing Staff"]')</t>
+  </si>
+  <si>
+    <t>referenceTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="ReferenceTy"]')</t>
+  </si>
+  <si>
+    <t>referenceTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-select[aria-label*="Reference Type"]')</t>
+  </si>
+  <si>
+    <t>referenceCodeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text*="ReferenceCo"]')</t>
+  </si>
+  <si>
+    <t>referenceCodeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="referenceEmployeeId"] ion-input')</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="productCode"]')</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="subProductCode"]')</t>
+  </si>
+  <si>
+    <t>specialPromotion</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="promotionCode"]')</t>
+  </si>
+  <si>
+    <t>sourcingChannel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="sourcingChannel"]')</t>
+  </si>
+  <si>
+    <t>businessCenterCode</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="businessCenter"]')</t>
+  </si>
+  <si>
+    <t>servicingType</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="servicingBpType"]')</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="serviciingBpId"]')</t>
+  </si>
+  <si>
+    <t>servicingBranch</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="serviceBranch"]')</t>
+  </si>
+  <si>
+    <t>spokeLocation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="spokeLoc"]')</t>
+  </si>
+  <si>
+    <t>closingStaff</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="servecingEmployeeId"]')</t>
+  </si>
+  <si>
+    <t>topupType</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-select-layout[id="topupType"]')</t>
+  </si>
+  <si>
+    <t>sourcingType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sourcingBpType"]')</t>
+  </si>
+  <si>
+    <t>sourcingOffice</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sourcingType"]')</t>
+  </si>
+  <si>
+    <t>sourcingEntity</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sourceBpId"]')</t>
+  </si>
+  <si>
+    <t>sourcingStaff</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="sourceEmployeeId"]')</t>
+  </si>
+  <si>
+    <t>referenceType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="referenceBpType"]')</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg3"]')</t>
+  </si>
+  <si>
+    <t>ApplicationDetailsTab</t>
+  </si>
+  <si>
+    <t>AppData_CustomerDetails_FieldName</t>
+  </si>
+  <si>
+    <t>customerDetailsTab</t>
+  </si>
+  <si>
+    <t>customerPersonalInfoScreen</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-card-header ion-title')</t>
+  </si>
+  <si>
+    <t>customerDetailsPencilBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-pencil"]')</t>
+  </si>
+  <si>
+    <t>customerDetailsBackBtn</t>
+  </si>
+  <si>
+    <t>customerDetailsSaveBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[icon="pi pi-save"]')</t>
+  </si>
+  <si>
+    <t>applicantTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="guarCoapFlag"] ion-label')</t>
+  </si>
+  <si>
+    <t>applicantTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="guarCoapFlag"] ion-select')</t>
+  </si>
+  <si>
+    <t>customerTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="indCorpFlag"] ion-label')</t>
+  </si>
+  <si>
+    <t>customerTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="indCorpFlag"] ion-select')</t>
+  </si>
+  <si>
+    <t>titleLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="salutation"] ion-label')</t>
+  </si>
+  <si>
+    <t>titleDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="salutation"] ion-select')</t>
+  </si>
+  <si>
+    <t>firstNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstName"] ion-label')</t>
+  </si>
+  <si>
+    <t>firstNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstName"] input')</t>
+  </si>
+  <si>
+    <t>middleNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleName"] ion-label')</t>
+  </si>
+  <si>
+    <t>middleNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleName"] input')</t>
+  </si>
+  <si>
+    <t>lastNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerLastName"] ion-label')</t>
+  </si>
+  <si>
+    <t>lastNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerLastName"] input')</t>
+  </si>
+  <si>
+    <t>familyNameLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerThirdName"] ion-label')</t>
+  </si>
+  <si>
+    <t>familyNameInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerThirdName"] input')</t>
+  </si>
+  <si>
+    <t>firstNameArabicLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstNameInOtherLang"] ion-label')</t>
+  </si>
+  <si>
+    <t>firstNameArabicInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>middleNameArabicLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleNameInOtherLang"] ion-label')</t>
+  </si>
+  <si>
+    <t>middleNameArabicInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>lastNameArabicLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerLastNameInOtherLang"] ion-label')</t>
+  </si>
+  <si>
+    <t>lastNameArabicInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerLastNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>familyNameArabicLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerNameInOtherLang"] ion-label')</t>
+  </si>
+  <si>
+    <t>familyNameArabicInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerNameInOtherLang"] input')</t>
+  </si>
+  <si>
+    <t>dobLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateBirthIncorp"] label')</t>
+  </si>
+  <si>
+    <t>dobCalender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateBirthIncorp"] p-calendar')</t>
+  </si>
+  <si>
+    <t>dobInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateBirthIncorp"] input')</t>
+  </si>
+  <si>
+    <t>ageLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerAge"] ion-label')</t>
+  </si>
+  <si>
+    <t>ageInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerAge"] input')</t>
+  </si>
+  <si>
+    <t>genderLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gender"] ion-label')</t>
+  </si>
+  <si>
+    <t>genderDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gender"] ion-select')</t>
+  </si>
+  <si>
+    <t>maritalStatusLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="maritalStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>maritalStatusDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="maritalStatus"] ion-select')</t>
+  </si>
+  <si>
+    <t>educationLevelLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="qualificationType"] ion-label')</t>
+  </si>
+  <si>
+    <t>educationLevelDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="qualificationType"] ion-select')</t>
+  </si>
+  <si>
+    <t>nationalityLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="nationalityId"] ion-label')</t>
+  </si>
+  <si>
+    <t>nationalityDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="nationalityId"] ion-select')</t>
+  </si>
+  <si>
+    <t>residentialStatusLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residenceStatus"] ion-label')</t>
+  </si>
+  <si>
+    <t>residentialStatusDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residenceStatus"] ion-select')</t>
+  </si>
+  <si>
+    <t>languageLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="languageId"] ion-label')</t>
+  </si>
+  <si>
+    <t>languageDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="languageId"] ion-select')</t>
+  </si>
+  <si>
+    <t>noOfDependsLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noOfDependents"] ion-label')</t>
+  </si>
+  <si>
+    <t>noOfDependsInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noOfDependents"] input')</t>
+  </si>
+  <si>
+    <t>clientCategoryLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="clientCategory"] ion-label')</t>
+  </si>
+  <si>
+    <t>clientCategoryDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="clientCategory"] ion-select')</t>
+  </si>
+  <si>
+    <t>blocklistLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isBlacklisted"] ion-label')</t>
+  </si>
+  <si>
+    <t>blocklistToggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isBlacklisted"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>creditBureauLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="creditBureauFlag"] ion-label')</t>
+  </si>
+  <si>
+    <t>creditBureauDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="creditBureauFlag"] ion-select')</t>
+  </si>
+  <si>
+    <t>remarksLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"] ion-label')</t>
+  </si>
+  <si>
+    <t>remarksInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"] input')</t>
+  </si>
+  <si>
+    <t>applicantType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="guarCoapFlag"]')</t>
+  </si>
+  <si>
+    <t>customerType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="indCorpFlag"]')</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="salutation"]')</t>
+  </si>
+  <si>
+    <t>firstName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstName"]')</t>
+  </si>
+  <si>
+    <t>middleName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleName"]')</t>
+  </si>
+  <si>
+    <t>lastName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerLastName"]')</t>
+  </si>
+  <si>
+    <t>familyName</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerThirdName"]')</t>
+  </si>
+  <si>
+    <t>firstNameArabic</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerFirstNameInOtherLang"]')</t>
+  </si>
+  <si>
+    <t>middleNameArabic</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerMiddleNameInOtherLang"]')</t>
+  </si>
+  <si>
+    <t>lastNameArabic</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerLastNameInOtherLang"]')</t>
+  </si>
+  <si>
+    <t>familyNameArabic</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerNameInOtherLang"]')</t>
+  </si>
+  <si>
+    <t>dateOfBirth</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="dateBirthIncorp"]')</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="customerAge"]')</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="gender"]')</t>
+  </si>
+  <si>
+    <t>maritalStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="maritalStatus"]')</t>
+  </si>
+  <si>
+    <t>educationLevel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="qualificationType"]')</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="nationalityId"]')</t>
+  </si>
+  <si>
+    <t>residentialStatus</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="residenceStatus"]')</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="languageId"]')</t>
+  </si>
+  <si>
+    <t>noOfDependents</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="noOfDependents"]')</t>
+  </si>
+  <si>
+    <t>clientCategory</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="clientCategory"]')</t>
+  </si>
+  <si>
+    <t>blocklisted</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="isBlacklisted"]')</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="remarks"]')</t>
+  </si>
+  <si>
+    <t>blankFieldError</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-toast').shadowRoot.querySelector('div[part="message"]')</t>
+  </si>
+  <si>
+    <t>alphabetError</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-msg*="ALPHABET.ALLOWED"] ion-badge')</t>
+  </si>
+  <si>
+    <t>negativeNbrError</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-form-error[ng-reflect-generic-msg*="enter a value that is n"] ion-badge')</t>
+  </si>
+  <si>
+    <t>contactDetailsBackBtn</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[icon="pi pi-arrow-left"]')[1]</t>
+  </si>
+  <si>
+    <t>contactDetailsSaveBtn</t>
+  </si>
+  <si>
+    <t>phoneType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneType"]')</t>
+  </si>
+  <si>
+    <t>phoneTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneType"] ion-label')</t>
+  </si>
+  <si>
+    <t>phoneTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneType"] ion-select')</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneNumber"]')</t>
+  </si>
+  <si>
+    <t>phoneNumberLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneNumber"] ion-label')</t>
+  </si>
+  <si>
+    <t>phoneNumberInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="PhoneNumber"] input')</t>
+  </si>
+  <si>
+    <t>consentPhone</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="ConsentPhone"]')</t>
+  </si>
+  <si>
+    <t>consentPhoneLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="ConsentPhone"] ion-label')</t>
+  </si>
+  <si>
+    <t>consentPhoneDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="ConsentPhone"] ion-select')</t>
+  </si>
+  <si>
+    <t>contactType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Contactmethod"]')</t>
+  </si>
+  <si>
+    <t>contactTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Contactmethod"] ion-label')</t>
+  </si>
+  <si>
+    <t>contactTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Contactmethod"] ion-select')</t>
+  </si>
+  <si>
+    <t>preferdTimeContact</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="preferredtimeofcontact"]')</t>
+  </si>
+  <si>
+    <t>preferdTimeContactLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="preferredtimeofcontact"] ion-label')</t>
+  </si>
+  <si>
+    <t>preferdTimeContactInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="preferredtimeofcontact"] input')</t>
+  </si>
+  <si>
+    <t>emailType</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="EmailType"]')</t>
+  </si>
+  <si>
+    <t>emailTypeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="EmailType"] ion-label')</t>
+  </si>
+  <si>
+    <t>emailTypeDropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="EmailType"] ion-select')</t>
+  </si>
+  <si>
+    <t>emailID</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Emailid"]')</t>
+  </si>
+  <si>
+    <t>emailIDLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Emailid"] ion-label')</t>
+  </si>
+  <si>
+    <t>emailIDInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('[id="Emailid"] input')</t>
+  </si>
+  <si>
+    <t>document.getElementById("seg8")</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="View"]')</t>
+  </si>
+  <si>
+    <t>customerDetailsViewBtn</t>
   </si>
 </sst>
 </file>
@@ -619,7 +1894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -820,12 +2095,1818 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="2" max="2" width="89.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="90.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>179</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>183</v>
+      </c>
+      <c r="B19" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>195</v>
+      </c>
+      <c r="B25" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>199</v>
+      </c>
+      <c r="B27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>201</v>
+      </c>
+      <c r="B28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>205</v>
+      </c>
+      <c r="B30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B32" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>219</v>
+      </c>
+      <c r="B37" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>221</v>
+      </c>
+      <c r="B38" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>223</v>
+      </c>
+      <c r="B39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="B40" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>229</v>
+      </c>
+      <c r="B42" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>231</v>
+      </c>
+      <c r="B43" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>237</v>
+      </c>
+      <c r="B46" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>241</v>
+      </c>
+      <c r="B48" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>243</v>
+      </c>
+      <c r="B49" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>245</v>
+      </c>
+      <c r="B50" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>247</v>
+      </c>
+      <c r="B51" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>249</v>
+      </c>
+      <c r="B52" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>251</v>
+      </c>
+      <c r="B53" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>253</v>
+      </c>
+      <c r="B54" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>255</v>
+      </c>
+      <c r="B55" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>257</v>
+      </c>
+      <c r="B56" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>259</v>
+      </c>
+      <c r="B57" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>261</v>
+      </c>
+      <c r="B58" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>265</v>
+      </c>
+      <c r="B60" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>267</v>
+      </c>
+      <c r="B61" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>269</v>
+      </c>
+      <c r="B62" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>271</v>
+      </c>
+      <c r="B63" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>273</v>
+      </c>
+      <c r="B64" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>275</v>
+      </c>
+      <c r="B65" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>278</v>
+      </c>
+      <c r="B66" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="46.140625" customWidth="1"/>
+    <col min="2" max="2" width="81.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>292</v>
+      </c>
+      <c r="B10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B12" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>306</v>
+      </c>
+      <c r="B17" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B18" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>312</v>
+      </c>
+      <c r="B20" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>314</v>
+      </c>
+      <c r="B21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>316</v>
+      </c>
+      <c r="B22" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>320</v>
+      </c>
+      <c r="B24" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>328</v>
+      </c>
+      <c r="B28" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>330</v>
+      </c>
+      <c r="B29" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>332</v>
+      </c>
+      <c r="B30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>334</v>
+      </c>
+      <c r="B31" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>336</v>
+      </c>
+      <c r="B32" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B33" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>340</v>
+      </c>
+      <c r="B34" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>342</v>
+      </c>
+      <c r="B35" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>344</v>
+      </c>
+      <c r="B36" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>346</v>
+      </c>
+      <c r="B37" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>348</v>
+      </c>
+      <c r="B38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>350</v>
+      </c>
+      <c r="B39" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>352</v>
+      </c>
+      <c r="B40" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>354</v>
+      </c>
+      <c r="B41" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>356</v>
+      </c>
+      <c r="B42" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>358</v>
+      </c>
+      <c r="B43" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>360</v>
+      </c>
+      <c r="B44" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>362</v>
+      </c>
+      <c r="B45" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>364</v>
+      </c>
+      <c r="B46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>366</v>
+      </c>
+      <c r="B47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>368</v>
+      </c>
+      <c r="B48" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>370</v>
+      </c>
+      <c r="B49" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>372</v>
+      </c>
+      <c r="B50" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>374</v>
+      </c>
+      <c r="B51" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>376</v>
+      </c>
+      <c r="B52" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>378</v>
+      </c>
+      <c r="B53" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>380</v>
+      </c>
+      <c r="B54" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>382</v>
+      </c>
+      <c r="B55" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>384</v>
+      </c>
+      <c r="B56" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>386</v>
+      </c>
+      <c r="B57" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>388</v>
+      </c>
+      <c r="B58" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>390</v>
+      </c>
+      <c r="B59" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>392</v>
+      </c>
+      <c r="B60" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>394</v>
+      </c>
+      <c r="B61" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>396</v>
+      </c>
+      <c r="B62" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>398</v>
+      </c>
+      <c r="B63" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>400</v>
+      </c>
+      <c r="B64" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>402</v>
+      </c>
+      <c r="B65" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>404</v>
+      </c>
+      <c r="B66" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>406</v>
+      </c>
+      <c r="B67" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>408</v>
+      </c>
+      <c r="B68" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>410</v>
+      </c>
+      <c r="B69" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>412</v>
+      </c>
+      <c r="B70" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>414</v>
+      </c>
+      <c r="B71" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>416</v>
+      </c>
+      <c r="B72" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>418</v>
+      </c>
+      <c r="B73" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>420</v>
+      </c>
+      <c r="B74" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>422</v>
+      </c>
+      <c r="B75" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>424</v>
+      </c>
+      <c r="B76" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>426</v>
+      </c>
+      <c r="B77" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>428</v>
+      </c>
+      <c r="B78" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>430</v>
+      </c>
+      <c r="B79" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>432</v>
+      </c>
+      <c r="B80" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>434</v>
+      </c>
+      <c r="B81" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>436</v>
+      </c>
+      <c r="B82" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>438</v>
+      </c>
+      <c r="B83" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>440</v>
+      </c>
+      <c r="B84" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>441</v>
+      </c>
+      <c r="B85" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>443</v>
+      </c>
+      <c r="B86" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>445</v>
+      </c>
+      <c r="B87" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>447</v>
+      </c>
+      <c r="B88" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>449</v>
+      </c>
+      <c r="B89" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>451</v>
+      </c>
+      <c r="B90" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>453</v>
+      </c>
+      <c r="B91" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>455</v>
+      </c>
+      <c r="B92" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>457</v>
+      </c>
+      <c r="B93" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>459</v>
+      </c>
+      <c r="B94" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>461</v>
+      </c>
+      <c r="B95" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>463</v>
+      </c>
+      <c r="B96" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>465</v>
+      </c>
+      <c r="B97" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>467</v>
+      </c>
+      <c r="B98" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>469</v>
+      </c>
+      <c r="B99" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>471</v>
+      </c>
+      <c r="B100" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>473</v>
+      </c>
+      <c r="B101" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>475</v>
+      </c>
+      <c r="B102" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>477</v>
+      </c>
+      <c r="B103" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>479</v>
+      </c>
+      <c r="B104" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>481</v>
+      </c>
+      <c r="B105" t="s">
+        <v>482</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ULS_Bharani/TestData/IjaraJSPaths.xlsx
+++ b/ULS_Bharani/TestData/IjaraJSPaths.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21075" windowHeight="8265" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Ijara_loginElements" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="iJarah_CommonElements" sheetId="4" r:id="rId4"/>
     <sheet name="TWCommodityPurchaseAppDetails" sheetId="5" r:id="rId5"/>
     <sheet name="TWCommodityPurchaseCustoDetails" sheetId="6" r:id="rId6"/>
+    <sheet name="MurabhaOfferingOfferDetails" sheetId="7" r:id="rId7"/>
+    <sheet name="ALoanAppdataEntryContactDetails" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="811">
   <si>
     <t>Ijara_LoginFieldName</t>
   </si>
@@ -1477,6 +1479,981 @@
   </si>
   <si>
     <t>customerDetailsViewBtn</t>
+  </si>
+  <si>
+    <t>OfferDetailsSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[ng-reflect-text="Go Back"')[1].parentElement.textContent</t>
+  </si>
+  <si>
+    <t>FinanceDetailsSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-label')[0]</t>
+  </si>
+  <si>
+    <t>CreditRiskFactor</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[1]</t>
+  </si>
+  <si>
+    <t>CreditScoreDetails</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[2]</t>
+  </si>
+  <si>
+    <t>EligibilityDetails</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[3]</t>
+  </si>
+  <si>
+    <t>InterestRateStructure</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[4]</t>
+  </si>
+  <si>
+    <t>editBtnIndex2</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('button[ng-reflect-text="Edit"]')[0]</t>
+  </si>
+  <si>
+    <t>AcceptOffer</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Accept Offer"]')</t>
+  </si>
+  <si>
+    <t>getAttribute_product</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Product"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>getAttribute_SubProduct</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Sub-Product"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>getAttribute_Scheme</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Scheme"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>getAttribute_PrincingIndicator</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Pricing Indicator"]').nextElementSibling</t>
+  </si>
+  <si>
+    <t>BackBtn_NavigativeFacilityScreen</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Go Back"]').parentElement</t>
+  </si>
+  <si>
+    <t>backButtonInRecord</t>
+  </si>
+  <si>
+    <t>offer details section</t>
+  </si>
+  <si>
+    <t>OflProduct</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Product"]')</t>
+  </si>
+  <si>
+    <t>OflSubProduct</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Sub-Product"]')</t>
+  </si>
+  <si>
+    <t>OflScheme</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Scheme"]')</t>
+  </si>
+  <si>
+    <t>OflPrincingIndicator</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Pricing Indicator"]')</t>
+  </si>
+  <si>
+    <t>OflOfferdAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Offered Amount"]')</t>
+  </si>
+  <si>
+    <t>OflTenure</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Tenure"]')</t>
+  </si>
+  <si>
+    <t>OflNaturalOfFinance</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Nature of Finance"]')</t>
+  </si>
+  <si>
+    <t>OflCurrency</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Currency"]')</t>
+  </si>
+  <si>
+    <t>Finance Detalis</t>
+  </si>
+  <si>
+    <t>FdAmountRequested</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Amount Requested"]')</t>
+  </si>
+  <si>
+    <t>FdDownPaymentAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Amount"]')</t>
+  </si>
+  <si>
+    <t>FdTotalDownPaymentAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Down Payment Amount"]')</t>
+  </si>
+  <si>
+    <t>FdProfitAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Profit Amount"]')</t>
+  </si>
+  <si>
+    <t>FdTotalContractAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Contract Value"]')</t>
+  </si>
+  <si>
+    <t>FdTotalIncome</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Income"]')</t>
+  </si>
+  <si>
+    <t>FdTotalNetIncome</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Net Income"]')</t>
+  </si>
+  <si>
+    <t>FdInstallmentFrequence</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Installment Frequency"]')</t>
+  </si>
+  <si>
+    <t>FdIRR</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="IRR"]')</t>
+  </si>
+  <si>
+    <t>FdTenure</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Tenure "]')</t>
+  </si>
+  <si>
+    <t>FdAdditionalDownPayment</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Additional Down payment"]')</t>
+  </si>
+  <si>
+    <t>FdDownPaymentPercentage</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Percentage"]')</t>
+  </si>
+  <si>
+    <t>FdTotalFees</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Fees"]')</t>
+  </si>
+  <si>
+    <t>FdTotalObligation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Obligations"]')</t>
+  </si>
+  <si>
+    <t>FdNoOfInstallment</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="No. of Installments"]')</t>
+  </si>
+  <si>
+    <t>FdLastInstallmentAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Last Installment Amount"]')</t>
+  </si>
+  <si>
+    <t>FdAPR</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="APR"]')</t>
+  </si>
+  <si>
+    <t>Credit Rise Factor</t>
+  </si>
+  <si>
+    <t>TotalScore</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="applScore"]')</t>
+  </si>
+  <si>
+    <t>RiseLevel</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="riskCatgId"]')</t>
+  </si>
+  <si>
+    <t>Credit Score Details</t>
+  </si>
+  <si>
+    <t>CSD_SrNo</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="description"]').firstChild</t>
+  </si>
+  <si>
+    <t>CSD_CustomerName</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="customerId"]').firstChild</t>
+  </si>
+  <si>
+    <t>CSD_CreditBureuaScore</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="score"]').firstChild</t>
+  </si>
+  <si>
+    <t>inboxSearchInput</t>
+  </si>
+  <si>
+    <t>document.querySelector("#pr_id_1 &gt; div.p-datatable-header.ng-star-inserted &gt; div &gt; span.p-input-icon-left.float-end.captionTemplatespan &gt; input")</t>
+  </si>
+  <si>
+    <t>offerDetailsTab</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-segment-button[id="seg1"]')</t>
+  </si>
+  <si>
+    <t>offerDetailsTabPencilIcon</t>
+  </si>
+  <si>
+    <t>offerDetailsSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[0]</t>
+  </si>
+  <si>
+    <t>financeDetailsSection</t>
+  </si>
+  <si>
+    <t>creditRiskFactorSection</t>
+  </si>
+  <si>
+    <t>creditScoreDetailsSection</t>
+  </si>
+  <si>
+    <t>eligibilityDetailsSection</t>
+  </si>
+  <si>
+    <t>interestRateStructureSection</t>
+  </si>
+  <si>
+    <t>installmentsSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-title')[5]</t>
+  </si>
+  <si>
+    <t>appealRequestSection</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('ion-item[class*="sectiontitles"] ion-label')[1]</t>
+  </si>
+  <si>
+    <t>offerDetails_productLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="productCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_productInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="productCode"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_subProductLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="subProductCode"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_subProductInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="subProductCode"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_schemeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="scheme"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_schemeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="scheme"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_pricingIndicatorLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="pricingIndicator"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_pricingIndicatorInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="pricingIndicator"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_offeredAmountLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="offeredAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_offeredAmountInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="offeredAmt"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_tenureLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="tenure"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_tenureInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="tenure"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_natureOfFinanceLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="natureOfFinance"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_natureOfFinanceInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="natureOfFinance"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_currencyLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="currency"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_currencyInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="currency"] input')</t>
+  </si>
+  <si>
+    <t>offerDetails_eligibleIncomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalMonthlyIncome"] ion-label')</t>
+  </si>
+  <si>
+    <t>offerDetails_eligibleIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalMonthlyIncome"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalObligationsLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="currentObligations"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalObligationsInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="currentObligations"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalnetIncomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="netIncome"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalnetIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="netIncome"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalIncomeLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalIncome"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalIncomeInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalIncome"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalFeesLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="chargeAmount"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalFeesInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="chargeAmount"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalDownPaymentAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Down Payment Amount"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalDownPaymentAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Total Down Payment Amount"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalContractValueLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalcontractvalue"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_totalContractValueInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="totalcontractvalue"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_noOfInstallmentsLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="numberOfInstalments"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_noOfInstallmentsInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="numberOfInstalments"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_lastInstallmentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="instalmentAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_lastInstallmentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="instalmentAmt"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_IRRLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="internalRateOfReturn"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_IRRInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="internalRateOfReturn"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_InstallmentFrequencyLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="repayFrequency"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_InstallmentFrequencyInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="repayFrequency"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_APRLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="effectiveApprovedAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_APRInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="effectiveApprovedAmt"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_AmountRequestedLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="requestedAmount"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_AmountRequestedInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="requestedAmount"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_AdditionalDownPaymentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="aditionalDownpaymentAmt"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_AdditionalDownPaymentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="aditionalDownpaymentAmt"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_downPaymentPercentLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Percentage"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_downPaymentPercentInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="Down Payment Percentage"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_tenureLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="loanTenure"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_tenureInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="loanTenure"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_profitAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="interestComponent"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_profitAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="interestComponent"] input')</t>
+  </si>
+  <si>
+    <t>financeDetails_downPaymentAmtLabel</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="downPaymentAmount"] ion-label')</t>
+  </si>
+  <si>
+    <t>financeDetails_downPaymentAmtInput</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-name="downPaymentAmount"] input')</t>
+  </si>
+  <si>
+    <t>creditRisk_TotalScoreField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="applScore"] span')</t>
+  </si>
+  <si>
+    <t>creditRisk_RiskLevelField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="riskCatgId"] span')</t>
+  </si>
+  <si>
+    <t>creditScore_SerialNoField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="description"] span')</t>
+  </si>
+  <si>
+    <t>creditScore_CustomerNameField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="customerId"] span')</t>
+  </si>
+  <si>
+    <t>creditScore_CreditBureauScoreField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="score"] span')</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_EligibilityTypeField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligibilityType"] span')</t>
+  </si>
+  <si>
+    <t>EligibilityAmtField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligibilityAmt"] span')</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_EligibilityPercentField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligiblePercent"] span')</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_CurrencyField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currency"] span')</t>
+  </si>
+  <si>
+    <t>ActualPercentField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="actualPercent"] span')</t>
+  </si>
+  <si>
+    <t>eligibilityDetails_DeviationLevelField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="deviationLvl"] span')</t>
+  </si>
+  <si>
+    <t>EligibilityTypeField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligibilityType"')</t>
+  </si>
+  <si>
+    <t>EligibilityAmountField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligibilityAmt"')</t>
+  </si>
+  <si>
+    <t>EligibilityPercentField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="eligiblePercent"')</t>
+  </si>
+  <si>
+    <t>CurrencyField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="currency"')</t>
+  </si>
+  <si>
+    <t>ActualPercentageField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="actualPercent"')</t>
+  </si>
+  <si>
+    <t>DeviationLevelField</t>
+  </si>
+  <si>
+    <t>document.querySelector('th[ng-reflect-field="deviationLvl"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_Period</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="periodDesc"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_RateDefinition</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="interestRateType"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_EffectiveRate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="baseRate"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_BaseRate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="originalRate"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_SpreadRate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="spreadRate"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_CapRate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="capRate"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_FloorRate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="floorRate"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_RBPAdjuster</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="multiplierValue"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_PenaltyRate</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="penaltyRate"')</t>
+  </si>
+  <si>
+    <t>InterestRateStructure_PenaltyFee</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="penaltyFee"')</t>
+  </si>
+  <si>
+    <t>Installments_InstallmentPeriod</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="installmentperiod"')</t>
+  </si>
+  <si>
+    <t>Installments_InstallmentAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-field="instlamt"')</t>
+  </si>
+  <si>
+    <t>NewRequestedAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="New Requested Amount"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>NewRequestedTenure</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="New Requested Tenure"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>OriginalRequestedAmount</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Original Requested Amount"])</t>
+  </si>
+  <si>
+    <t>OriginalRequestedTenure</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="Original Requested Tenure"]')</t>
+  </si>
+  <si>
+    <t>RecommendationsSanctionConditionsLink</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="New Requested Tenure"]').parentElement.parentElement.parentElement.parentElement.nextElementSibling.querySelectorAll('a')[0]</t>
+  </si>
+  <si>
+    <t>ApprovalHistoryLink</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="New Requested Tenure"]').parentElement.parentElement.parentElement.parentElement.nextElementSibling.querySelectorAll('a')[1]</t>
+  </si>
+  <si>
+    <t>SaveButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Save"]')</t>
+  </si>
+  <si>
+    <t>AppealButton</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-text="Appeal"]')</t>
+  </si>
+  <si>
+    <t>AcceptOfferButton</t>
+  </si>
+  <si>
+    <t>mailInboxSearchBtn</t>
+  </si>
+  <si>
+    <t>document.querySelector('[ng-reflect-text="Search"]')</t>
+  </si>
+  <si>
+    <t>PencilIcon</t>
+  </si>
+  <si>
+    <t>document.querySelector('button[ng-reflect-icon="pi pi-pencil"]')</t>
+  </si>
+  <si>
+    <t>phone_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_PHONE_TYPE.TOO"]+ion-select')</t>
+  </si>
+  <si>
+    <t>phone_number_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_PHONE_NUMBER.T"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>phone_number_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_PHONE_NUMBER.T"]').innerText</t>
+  </si>
+  <si>
+    <t>consent_for_phone_contact_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_PHONE_CONSENT."]+ion-select')</t>
+  </si>
+  <si>
+    <t>prefered_phone_contact_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_PHONE_CONTACT_"]+ion-select')</t>
+  </si>
+  <si>
+    <t>prefered_time_for_contact_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_PHONE_CONTACT_"]+ion-input input')</t>
+  </si>
+  <si>
+    <t>prefered_time_for_contact_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_PHONE_CONTACT_"]').innerText</t>
+  </si>
+  <si>
+    <t>email_type_dropdown</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_EMAIL_TYPE.TOO"]+ion-select')</t>
+  </si>
+  <si>
+    <t>email_input_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="CONTACT_DETAILS_EMAIL_ID"] input')</t>
+  </si>
+  <si>
+    <t>email_id_mandatory_verification</t>
+  </si>
+  <si>
+    <t>document.querySelector('ion-label[ng-reflect-text="CONTACT_DETAILS_EMAIL_ID.TOOLT"]').innerText</t>
+  </si>
+  <si>
+    <t>phone_contact_time_input</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="CONTACT_DETAILS_PHONE_CONTACT_"] input')</t>
+  </si>
+  <si>
+    <t>phone_number_field_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="CONTACT_DETAILS_PHONE_NUMBER"]+div ion-badge').innerText</t>
+  </si>
+  <si>
+    <t>prefered_time_for_contact_field_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="CONTACT_DETAILS_PHONE_CONTACT_"]+div ion-badge').innerText</t>
+  </si>
+  <si>
+    <t>email_id_field_validation</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-text-box[ng-reflect-title="CONTACT_DETAILS_EMAIL_ID"]+div ion-badge').innerText</t>
+  </si>
+  <si>
+    <t>contact_details_toggle</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-name="recStatus"] ion-toggle')</t>
+  </si>
+  <si>
+    <t>contact_details_toggle_status</t>
+  </si>
+  <si>
+    <t>document.querySelector('digital-radio-button[ng-reflect-name="recStatus"] ion-toggle').getAttribute('aria-checked')</t>
+  </si>
+  <si>
+    <t>document.getElementById('seg4')</t>
+  </si>
+  <si>
+    <t>phone_number_field_validation2</t>
+  </si>
+  <si>
+    <t>document.querySelectorAll('digital-text-box[ng-reflect-title="CONTACT_DETAILS_PHONE_NUMBER"]+div ion-badge')[1].innerText</t>
   </si>
 </sst>
 </file>
@@ -3056,7 +4033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3909,4 +4886,1470 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B154"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="88.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B4" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B5" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B8" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B9" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>502</v>
+      </c>
+      <c r="B10" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B11" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>506</v>
+      </c>
+      <c r="B12" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B13" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>510</v>
+      </c>
+      <c r="B14" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>514</v>
+      </c>
+      <c r="B17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>516</v>
+      </c>
+      <c r="B18" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>518</v>
+      </c>
+      <c r="B19" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>520</v>
+      </c>
+      <c r="B20" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>522</v>
+      </c>
+      <c r="B21" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>524</v>
+      </c>
+      <c r="B22" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>526</v>
+      </c>
+      <c r="B23" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>528</v>
+      </c>
+      <c r="B24" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>531</v>
+      </c>
+      <c r="B26" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>533</v>
+      </c>
+      <c r="B27" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>535</v>
+      </c>
+      <c r="B28" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>537</v>
+      </c>
+      <c r="B29" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>539</v>
+      </c>
+      <c r="B30" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>541</v>
+      </c>
+      <c r="B31" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>543</v>
+      </c>
+      <c r="B32" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>545</v>
+      </c>
+      <c r="B33" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>547</v>
+      </c>
+      <c r="B34" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>549</v>
+      </c>
+      <c r="B35" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>551</v>
+      </c>
+      <c r="B36" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>553</v>
+      </c>
+      <c r="B37" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>555</v>
+      </c>
+      <c r="B38" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>557</v>
+      </c>
+      <c r="B39" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>559</v>
+      </c>
+      <c r="B40" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>561</v>
+      </c>
+      <c r="B41" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>563</v>
+      </c>
+      <c r="B42" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>566</v>
+      </c>
+      <c r="B44" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>568</v>
+      </c>
+      <c r="B45" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>571</v>
+      </c>
+      <c r="B47" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>573</v>
+      </c>
+      <c r="B48" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>575</v>
+      </c>
+      <c r="B49" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>577</v>
+      </c>
+      <c r="B51" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>579</v>
+      </c>
+      <c r="B52" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>581</v>
+      </c>
+      <c r="B53" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>582</v>
+      </c>
+      <c r="B54" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>584</v>
+      </c>
+      <c r="B55" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>585</v>
+      </c>
+      <c r="B56" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>586</v>
+      </c>
+      <c r="B57" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>587</v>
+      </c>
+      <c r="B58" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>588</v>
+      </c>
+      <c r="B59" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>589</v>
+      </c>
+      <c r="B60" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>591</v>
+      </c>
+      <c r="B61" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>593</v>
+      </c>
+      <c r="B62" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>595</v>
+      </c>
+      <c r="B63" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>597</v>
+      </c>
+      <c r="B64" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>599</v>
+      </c>
+      <c r="B65" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>601</v>
+      </c>
+      <c r="B66" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>603</v>
+      </c>
+      <c r="B67" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>605</v>
+      </c>
+      <c r="B68" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>607</v>
+      </c>
+      <c r="B69" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>609</v>
+      </c>
+      <c r="B70" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>611</v>
+      </c>
+      <c r="B71" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>613</v>
+      </c>
+      <c r="B72" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>615</v>
+      </c>
+      <c r="B73" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>617</v>
+      </c>
+      <c r="B74" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>619</v>
+      </c>
+      <c r="B75" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>621</v>
+      </c>
+      <c r="B76" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>623</v>
+      </c>
+      <c r="B77" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>625</v>
+      </c>
+      <c r="B78" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>627</v>
+      </c>
+      <c r="B79" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>629</v>
+      </c>
+      <c r="B80" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>631</v>
+      </c>
+      <c r="B81" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>633</v>
+      </c>
+      <c r="B82" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>635</v>
+      </c>
+      <c r="B83" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>637</v>
+      </c>
+      <c r="B84" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>639</v>
+      </c>
+      <c r="B85" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>641</v>
+      </c>
+      <c r="B86" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>643</v>
+      </c>
+      <c r="B87" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>645</v>
+      </c>
+      <c r="B88" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>647</v>
+      </c>
+      <c r="B89" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>649</v>
+      </c>
+      <c r="B90" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>651</v>
+      </c>
+      <c r="B91" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>653</v>
+      </c>
+      <c r="B92" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>655</v>
+      </c>
+      <c r="B93" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>657</v>
+      </c>
+      <c r="B94" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>659</v>
+      </c>
+      <c r="B95" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>661</v>
+      </c>
+      <c r="B96" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>663</v>
+      </c>
+      <c r="B97" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>665</v>
+      </c>
+      <c r="B98" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>667</v>
+      </c>
+      <c r="B99" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>669</v>
+      </c>
+      <c r="B100" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>671</v>
+      </c>
+      <c r="B101" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>673</v>
+      </c>
+      <c r="B102" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>675</v>
+      </c>
+      <c r="B103" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>677</v>
+      </c>
+      <c r="B104" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>679</v>
+      </c>
+      <c r="B105" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>681</v>
+      </c>
+      <c r="B106" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>683</v>
+      </c>
+      <c r="B107" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>685</v>
+      </c>
+      <c r="B108" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>687</v>
+      </c>
+      <c r="B109" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>689</v>
+      </c>
+      <c r="B110" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>691</v>
+      </c>
+      <c r="B111" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>693</v>
+      </c>
+      <c r="B112" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>695</v>
+      </c>
+      <c r="B113" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>697</v>
+      </c>
+      <c r="B114" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>699</v>
+      </c>
+      <c r="B115" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>701</v>
+      </c>
+      <c r="B116" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>703</v>
+      </c>
+      <c r="B117" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>705</v>
+      </c>
+      <c r="B118" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>707</v>
+      </c>
+      <c r="B119" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>709</v>
+      </c>
+      <c r="B120" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>711</v>
+      </c>
+      <c r="B121" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>713</v>
+      </c>
+      <c r="B122" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>715</v>
+      </c>
+      <c r="B123" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>717</v>
+      </c>
+      <c r="B124" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>719</v>
+      </c>
+      <c r="B125" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>721</v>
+      </c>
+      <c r="B126" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>723</v>
+      </c>
+      <c r="B127" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>725</v>
+      </c>
+      <c r="B128" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>727</v>
+      </c>
+      <c r="B129" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>729</v>
+      </c>
+      <c r="B130" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>731</v>
+      </c>
+      <c r="B131" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>733</v>
+      </c>
+      <c r="B132" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>735</v>
+      </c>
+      <c r="B133" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>737</v>
+      </c>
+      <c r="B134" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>739</v>
+      </c>
+      <c r="B135" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>741</v>
+      </c>
+      <c r="B136" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>743</v>
+      </c>
+      <c r="B137" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>745</v>
+      </c>
+      <c r="B138" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>747</v>
+      </c>
+      <c r="B139" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>749</v>
+      </c>
+      <c r="B140" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>751</v>
+      </c>
+      <c r="B141" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>753</v>
+      </c>
+      <c r="B142" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>755</v>
+      </c>
+      <c r="B143" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>757</v>
+      </c>
+      <c r="B144" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>759</v>
+      </c>
+      <c r="B145" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>761</v>
+      </c>
+      <c r="B146" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>763</v>
+      </c>
+      <c r="B147" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>765</v>
+      </c>
+      <c r="B148" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>767</v>
+      </c>
+      <c r="B149" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>769</v>
+      </c>
+      <c r="B150" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>771</v>
+      </c>
+      <c r="B151" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>772</v>
+      </c>
+      <c r="B152" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>577</v>
+      </c>
+      <c r="B153" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>774</v>
+      </c>
+      <c r="B154" t="s">
+        <v>775</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="2" max="2" width="121.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>776</v>
+      </c>
+      <c r="B2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>778</v>
+      </c>
+      <c r="B3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>780</v>
+      </c>
+      <c r="B4" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B5" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>784</v>
+      </c>
+      <c r="B6" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>786</v>
+      </c>
+      <c r="B7" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>788</v>
+      </c>
+      <c r="B8" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>790</v>
+      </c>
+      <c r="B9" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>792</v>
+      </c>
+      <c r="B10" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>794</v>
+      </c>
+      <c r="B11" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>796</v>
+      </c>
+      <c r="B12" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>798</v>
+      </c>
+      <c r="B13" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>800</v>
+      </c>
+      <c r="B14" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>802</v>
+      </c>
+      <c r="B15" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>804</v>
+      </c>
+      <c r="B16" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>806</v>
+      </c>
+      <c r="B17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>809</v>
+      </c>
+      <c r="B27" t="s">
+        <v>810</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>